--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Sema4a-Plxnb2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Sema4a-Plxnb2.xlsx
@@ -528,22 +528,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>25.81602566666667</v>
+        <v>0.03994766666666667</v>
       </c>
       <c r="H2">
-        <v>77.44807700000001</v>
+        <v>0.119843</v>
       </c>
       <c r="I2">
-        <v>0.7742517153725241</v>
+        <v>0.009195128023837375</v>
       </c>
       <c r="J2">
-        <v>0.7742517153725241</v>
+        <v>0.009195128023837375</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>8.806900666666666</v>
+        <v>1.599392</v>
       </c>
       <c r="N2">
-        <v>26.420702</v>
+        <v>4.798176</v>
       </c>
       <c r="O2">
-        <v>0.1733678197953833</v>
+        <v>0.03952976301548796</v>
       </c>
       <c r="P2">
-        <v>0.1733678197953834</v>
+        <v>0.03952976301548796</v>
       </c>
       <c r="Q2">
-        <v>227.3591736544505</v>
+        <v>0.06389197848533333</v>
       </c>
       <c r="R2">
-        <v>2046.232562890054</v>
+        <v>0.575027806368</v>
       </c>
       <c r="S2">
-        <v>0.1342303318669702</v>
+        <v>0.0003634812316793635</v>
       </c>
       <c r="T2">
-        <v>0.1342303318669702</v>
+        <v>0.0003634812316793635</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>25.81602566666667</v>
+        <v>0.03994766666666667</v>
       </c>
       <c r="H3">
-        <v>77.44807700000001</v>
+        <v>0.119843</v>
       </c>
       <c r="I3">
-        <v>0.7742517153725241</v>
+        <v>0.009195128023837375</v>
       </c>
       <c r="J3">
-        <v>0.7742517153725241</v>
+        <v>0.009195128023837375</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>56.30067200000001</v>
       </c>
       <c r="O3">
-        <v>0.3694347242421866</v>
+        <v>0.4638329693976876</v>
       </c>
       <c r="P3">
-        <v>0.3694347242421866</v>
+        <v>0.4638329693976876</v>
       </c>
       <c r="Q3">
-        <v>484.4865311341939</v>
+        <v>0.7496934927217779</v>
       </c>
       <c r="R3">
-        <v>4360.378780207745</v>
+        <v>6.747241434496001</v>
       </c>
       <c r="S3">
-        <v>0.2860354689626884</v>
+        <v>0.004265003535288381</v>
       </c>
       <c r="T3">
-        <v>0.2860354689626884</v>
+        <v>0.004265003535288381</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,22 +652,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>25.81602566666667</v>
+        <v>0.03994766666666667</v>
       </c>
       <c r="H4">
-        <v>77.44807700000001</v>
+        <v>0.119843</v>
       </c>
       <c r="I4">
-        <v>0.7742517153725241</v>
+        <v>0.009195128023837375</v>
       </c>
       <c r="J4">
-        <v>0.7742517153725241</v>
+        <v>0.009195128023837375</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>23.225144</v>
+        <v>20.09416733333333</v>
       </c>
       <c r="N4">
-        <v>69.675432</v>
+        <v>60.28250199999999</v>
       </c>
       <c r="O4">
-        <v>0.4571974559624301</v>
+        <v>0.4966372675868244</v>
       </c>
       <c r="P4">
-        <v>0.4571974559624301</v>
+        <v>0.4966372675868245</v>
       </c>
       <c r="Q4">
-        <v>599.5809136160294</v>
+        <v>0.8027150985762221</v>
       </c>
       <c r="R4">
-        <v>5396.228222544265</v>
+        <v>7.224435887186</v>
       </c>
       <c r="S4">
-        <v>0.3539859145428656</v>
+        <v>0.00456664325686963</v>
       </c>
       <c r="T4">
-        <v>0.3539859145428656</v>
+        <v>0.004566643256869631</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>8.155583</v>
       </c>
       <c r="I5">
-        <v>0.08153170965901445</v>
+        <v>0.6257489364754861</v>
       </c>
       <c r="J5">
-        <v>0.08153170965901445</v>
+        <v>0.6257489364754861</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>8.806900666666666</v>
+        <v>1.599392</v>
       </c>
       <c r="N5">
-        <v>26.420702</v>
+        <v>4.798176</v>
       </c>
       <c r="O5">
-        <v>0.1733678197953833</v>
+        <v>0.03952976301548796</v>
       </c>
       <c r="P5">
-        <v>0.1733678197953834</v>
+        <v>0.03952976301548796</v>
       </c>
       <c r="Q5">
-        <v>23.94180311991844</v>
+        <v>4.347991401845333</v>
       </c>
       <c r="R5">
-        <v>215.476228079266</v>
+        <v>39.131922616608</v>
       </c>
       <c r="S5">
-        <v>0.01413497474777353</v>
+        <v>0.0247357071660696</v>
       </c>
       <c r="T5">
-        <v>0.01413497474777354</v>
+        <v>0.0247357071660696</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>8.155583</v>
       </c>
       <c r="I6">
-        <v>0.08153170965901445</v>
+        <v>0.6257489364754861</v>
       </c>
       <c r="J6">
-        <v>0.08153170965901445</v>
+        <v>0.6257489364754861</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>56.30067200000001</v>
       </c>
       <c r="O6">
-        <v>0.3694347242421866</v>
+        <v>0.4638329693976876</v>
       </c>
       <c r="P6">
-        <v>0.3694347242421866</v>
+        <v>0.4638329693976876</v>
       </c>
       <c r="Q6">
         <v>51.01831149464179</v>
@@ -818,10 +818,10 @@
         <v>459.164803451776</v>
       </c>
       <c r="S6">
-        <v>0.03012064467487202</v>
+        <v>0.2902429873028697</v>
       </c>
       <c r="T6">
-        <v>0.03012064467487202</v>
+        <v>0.2902429873028697</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>8.155583</v>
       </c>
       <c r="I7">
-        <v>0.08153170965901445</v>
+        <v>0.6257489364754861</v>
       </c>
       <c r="J7">
-        <v>0.08153170965901445</v>
+        <v>0.6257489364754861</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>23.225144</v>
+        <v>20.09416733333333</v>
       </c>
       <c r="N7">
-        <v>69.675432</v>
+        <v>60.28250199999999</v>
       </c>
       <c r="O7">
-        <v>0.4571974559624301</v>
+        <v>0.4966372675868244</v>
       </c>
       <c r="P7">
-        <v>0.4571974559624301</v>
+        <v>0.4966372675868245</v>
       </c>
       <c r="Q7">
-        <v>63.13819652631734</v>
+        <v>54.62654983429621</v>
       </c>
       <c r="R7">
-        <v>568.2437687368561</v>
+        <v>491.638948508666</v>
       </c>
       <c r="S7">
-        <v>0.03727609023636889</v>
+        <v>0.3107702420065468</v>
       </c>
       <c r="T7">
-        <v>0.03727609023636889</v>
+        <v>0.3107702420065468</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>4.808641333333334</v>
+        <v>1.585963</v>
       </c>
       <c r="H8">
-        <v>14.425924</v>
+        <v>4.757889</v>
       </c>
       <c r="I8">
-        <v>0.1442165749684613</v>
+        <v>0.3650559355006766</v>
       </c>
       <c r="J8">
-        <v>0.1442165749684613</v>
+        <v>0.3650559355006766</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>8.806900666666666</v>
+        <v>1.599392</v>
       </c>
       <c r="N8">
-        <v>26.420702</v>
+        <v>4.798176</v>
       </c>
       <c r="O8">
-        <v>0.1733678197953833</v>
+        <v>0.03952976301548796</v>
       </c>
       <c r="P8">
-        <v>0.1733678197953834</v>
+        <v>0.03952976301548796</v>
       </c>
       <c r="Q8">
-        <v>42.34922656429422</v>
+        <v>2.536576534496</v>
       </c>
       <c r="R8">
-        <v>381.143039078648</v>
+        <v>22.829188810464</v>
       </c>
       <c r="S8">
-        <v>0.02500251318063959</v>
+        <v>0.014430574617739</v>
       </c>
       <c r="T8">
-        <v>0.02500251318063959</v>
+        <v>0.014430574617739</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>4.808641333333334</v>
+        <v>1.585963</v>
       </c>
       <c r="H9">
-        <v>14.425924</v>
+        <v>4.757889</v>
       </c>
       <c r="I9">
-        <v>0.1442165749684613</v>
+        <v>0.3650559355006766</v>
       </c>
       <c r="J9">
-        <v>0.1442165749684613</v>
+        <v>0.3650559355006766</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>56.30067200000001</v>
       </c>
       <c r="O9">
-        <v>0.3694347242421866</v>
+        <v>0.4638329693976876</v>
       </c>
       <c r="P9">
-        <v>0.3694347242421866</v>
+        <v>0.4638329693976876</v>
       </c>
       <c r="Q9">
-        <v>90.2432461578809</v>
+        <v>29.76359422237866</v>
       </c>
       <c r="R9">
-        <v>812.1892154209282</v>
+        <v>267.872348001408</v>
       </c>
       <c r="S9">
-        <v>0.05327861060462613</v>
+        <v>0.1693249785595295</v>
       </c>
       <c r="T9">
-        <v>0.05327861060462613</v>
+        <v>0.1693249785595295</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>4.808641333333334</v>
+        <v>1.585963</v>
       </c>
       <c r="H10">
-        <v>14.425924</v>
+        <v>4.757889</v>
       </c>
       <c r="I10">
-        <v>0.1442165749684613</v>
+        <v>0.3650559355006766</v>
       </c>
       <c r="J10">
-        <v>0.1442165749684613</v>
+        <v>0.3650559355006766</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>23.225144</v>
+        <v>20.09416733333333</v>
       </c>
       <c r="N10">
-        <v>69.675432</v>
+        <v>60.28250199999999</v>
       </c>
       <c r="O10">
-        <v>0.4571974559624301</v>
+        <v>0.4966372675868244</v>
       </c>
       <c r="P10">
-        <v>0.4571974559624301</v>
+        <v>0.4966372675868245</v>
       </c>
       <c r="Q10">
-        <v>111.6813874110187</v>
+        <v>31.86860590647533</v>
       </c>
       <c r="R10">
-        <v>1005.132486699168</v>
+        <v>286.8174531582779</v>
       </c>
       <c r="S10">
-        <v>0.06593545118319559</v>
+        <v>0.181300382323408</v>
       </c>
       <c r="T10">
-        <v>0.06593545118319559</v>
+        <v>0.181300382323408</v>
       </c>
     </row>
   </sheetData>
